--- a/data/여성사망률추이.xlsx
+++ b/data/여성사망률추이.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\IITPMainProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693A4F4A-72D0-452F-B60E-AE860E23DBA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB7DCE4-C0DC-4F24-8418-C650A3C2E8E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="2220" windowWidth="19890" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,18 +73,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -128,11 +122,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,7 +466,7 @@
   <dimension ref="A1:CX119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -799,16 +790,16 @@
       <c r="B2" s="10">
         <v>0.16426531999999999</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
       <c r="G2" s="10">
@@ -826,19 +817,19 @@
       <c r="K2" s="10">
         <v>5.2193656000000003E-3</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
       <c r="Q2" s="10">
@@ -856,19 +847,19 @@
       <c r="U2" s="10">
         <v>3.5171386000000002E-3</v>
       </c>
-      <c r="V2" s="11">
+      <c r="V2" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="X2" s="11">
+      <c r="X2" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Y2" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="Z2" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
       <c r="AA2" s="10">
@@ -886,19 +877,19 @@
       <c r="AE2" s="10">
         <v>4.9123292000000001E-3</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AF2" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AG2" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AH2" s="11">
+      <c r="AH2" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AI2" s="11">
+      <c r="AI2" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AJ2" s="11">
+      <c r="AJ2" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
       <c r="AK2" s="10">
@@ -916,19 +907,19 @@
       <c r="AO2" s="10">
         <v>6.9764908000000004E-3</v>
       </c>
-      <c r="AP2" s="11">
+      <c r="AP2" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AQ2" s="11">
+      <c r="AQ2" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AR2" s="11">
+      <c r="AR2" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AS2" s="11">
+      <c r="AS2" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AT2" s="11">
+      <c r="AT2" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
       <c r="AU2" s="10">
@@ -946,19 +937,19 @@
       <c r="AY2" s="10">
         <v>9.6682752999999993E-3</v>
       </c>
-      <c r="AZ2" s="11">
+      <c r="AZ2" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BA2" s="11">
+      <c r="BA2" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BB2" s="11">
+      <c r="BB2" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BC2" s="11">
+      <c r="BC2" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BD2" s="11">
+      <c r="BD2" s="10">
         <v>1.2999171E-2</v>
       </c>
       <c r="BE2" s="10">
@@ -976,19 +967,19 @@
       <c r="BI2" s="10">
         <v>1.7799999E-2</v>
       </c>
-      <c r="BJ2" s="11">
+      <c r="BJ2" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BK2" s="11">
+      <c r="BK2" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BL2" s="11">
+      <c r="BL2" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BM2" s="11">
+      <c r="BM2" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BN2" s="11">
+      <c r="BN2" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
       <c r="BO2" s="10">
@@ -1006,19 +997,19 @@
       <c r="BS2" s="10">
         <v>4.9775130000000001E-2</v>
       </c>
-      <c r="BT2" s="11">
+      <c r="BT2" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BU2" s="11">
+      <c r="BU2" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BV2" s="11">
+      <c r="BV2" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BW2" s="11">
+      <c r="BW2" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BX2" s="11">
+      <c r="BX2" s="10">
         <v>8.501409E-2</v>
       </c>
       <c r="BY2" s="10">
@@ -1036,19 +1027,19 @@
       <c r="CC2" s="10">
         <v>0.12961991</v>
       </c>
-      <c r="CD2" s="11">
+      <c r="CD2" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CE2" s="11">
+      <c r="CE2" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CF2" s="11">
+      <c r="CF2" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CG2" s="11">
+      <c r="CG2" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CH2" s="11">
+      <c r="CH2" s="10">
         <v>0.1919806</v>
       </c>
       <c r="CI2" s="10">
@@ -1066,19 +1057,19 @@
       <c r="CM2" s="10">
         <v>0.27199255</v>
       </c>
-      <c r="CN2" s="11">
+      <c r="CN2" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CO2" s="11">
+      <c r="CO2" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CP2" s="11">
+      <c r="CP2" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CQ2" s="11">
+      <c r="CQ2" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CR2" s="11">
+      <c r="CR2" s="10">
         <v>0.37359783000000002</v>
       </c>
       <c r="CS2" s="10">
@@ -1107,16 +1098,16 @@
       <c r="B3" s="10">
         <v>0.16426531999999999</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
       <c r="G3" s="10">
@@ -1134,19 +1125,19 @@
       <c r="K3" s="10">
         <v>5.2193656000000003E-3</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
       <c r="Q3" s="10">
@@ -1164,19 +1155,19 @@
       <c r="U3" s="10">
         <v>3.5171386000000002E-3</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
       <c r="AA3" s="10">
@@ -1194,19 +1185,19 @@
       <c r="AE3" s="10">
         <v>4.9123292000000001E-3</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AF3" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG3" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AH3" s="11">
+      <c r="AH3" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AI3" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AJ3" s="11">
+      <c r="AJ3" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
       <c r="AK3" s="10">
@@ -1224,19 +1215,19 @@
       <c r="AO3" s="10">
         <v>6.9764908000000004E-3</v>
       </c>
-      <c r="AP3" s="11">
+      <c r="AP3" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AQ3" s="11">
+      <c r="AQ3" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AR3" s="11">
+      <c r="AR3" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AS3" s="11">
+      <c r="AS3" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AT3" s="11">
+      <c r="AT3" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
       <c r="AU3" s="10">
@@ -1254,19 +1245,19 @@
       <c r="AY3" s="10">
         <v>9.6682752999999993E-3</v>
       </c>
-      <c r="AZ3" s="11">
+      <c r="AZ3" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BA3" s="11">
+      <c r="BA3" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BB3" s="11">
+      <c r="BB3" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BC3" s="11">
+      <c r="BC3" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BD3" s="11">
+      <c r="BD3" s="10">
         <v>1.2999171E-2</v>
       </c>
       <c r="BE3" s="10">
@@ -1284,19 +1275,19 @@
       <c r="BI3" s="10">
         <v>1.7799999E-2</v>
       </c>
-      <c r="BJ3" s="11">
+      <c r="BJ3" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BK3" s="11">
+      <c r="BK3" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BL3" s="11">
+      <c r="BL3" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BM3" s="11">
+      <c r="BM3" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BN3" s="11">
+      <c r="BN3" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
       <c r="BO3" s="10">
@@ -1314,19 +1305,19 @@
       <c r="BS3" s="10">
         <v>4.9775130000000001E-2</v>
       </c>
-      <c r="BT3" s="11">
+      <c r="BT3" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BU3" s="11">
+      <c r="BU3" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BV3" s="11">
+      <c r="BV3" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BW3" s="11">
+      <c r="BW3" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BX3" s="11">
+      <c r="BX3" s="10">
         <v>8.501409E-2</v>
       </c>
       <c r="BY3" s="10">
@@ -1344,19 +1335,19 @@
       <c r="CC3" s="10">
         <v>0.12961991</v>
       </c>
-      <c r="CD3" s="11">
+      <c r="CD3" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CE3" s="11">
+      <c r="CE3" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CF3" s="11">
+      <c r="CF3" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CG3" s="11">
+      <c r="CG3" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CH3" s="11">
+      <c r="CH3" s="10">
         <v>0.1919806</v>
       </c>
       <c r="CI3" s="10">
@@ -1374,19 +1365,19 @@
       <c r="CM3" s="10">
         <v>0.27199255</v>
       </c>
-      <c r="CN3" s="11">
+      <c r="CN3" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CO3" s="11">
+      <c r="CO3" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CP3" s="11">
+      <c r="CP3" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CQ3" s="11">
+      <c r="CQ3" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CR3" s="11">
+      <c r="CR3" s="10">
         <v>0.37359783000000002</v>
       </c>
       <c r="CS3" s="10">
@@ -1415,16 +1406,16 @@
       <c r="B4" s="10">
         <v>0.16426531999999999</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
       <c r="G4" s="10">
@@ -1442,19 +1433,19 @@
       <c r="K4" s="10">
         <v>5.2193656000000003E-3</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
       <c r="Q4" s="10">
@@ -1472,19 +1463,19 @@
       <c r="U4" s="10">
         <v>3.5171386000000002E-3</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="Z4" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
       <c r="AA4" s="10">
@@ -1502,19 +1493,19 @@
       <c r="AE4" s="10">
         <v>4.9123292000000001E-3</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AF4" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AH4" s="11">
+      <c r="AH4" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AI4" s="11">
+      <c r="AI4" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AJ4" s="11">
+      <c r="AJ4" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
       <c r="AK4" s="10">
@@ -1532,19 +1523,19 @@
       <c r="AO4" s="10">
         <v>6.9764908000000004E-3</v>
       </c>
-      <c r="AP4" s="11">
+      <c r="AP4" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AQ4" s="11">
+      <c r="AQ4" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AR4" s="11">
+      <c r="AR4" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AS4" s="11">
+      <c r="AS4" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AT4" s="11">
+      <c r="AT4" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
       <c r="AU4" s="10">
@@ -1562,19 +1553,19 @@
       <c r="AY4" s="10">
         <v>9.6682752999999993E-3</v>
       </c>
-      <c r="AZ4" s="11">
+      <c r="AZ4" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BA4" s="11">
+      <c r="BA4" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BB4" s="11">
+      <c r="BB4" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BC4" s="11">
+      <c r="BC4" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BD4" s="11">
+      <c r="BD4" s="10">
         <v>1.2999171E-2</v>
       </c>
       <c r="BE4" s="10">
@@ -1592,19 +1583,19 @@
       <c r="BI4" s="10">
         <v>1.7799999E-2</v>
       </c>
-      <c r="BJ4" s="11">
+      <c r="BJ4" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BK4" s="11">
+      <c r="BK4" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BL4" s="11">
+      <c r="BL4" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BM4" s="11">
+      <c r="BM4" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BN4" s="11">
+      <c r="BN4" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
       <c r="BO4" s="10">
@@ -1622,19 +1613,19 @@
       <c r="BS4" s="10">
         <v>4.9775130000000001E-2</v>
       </c>
-      <c r="BT4" s="11">
+      <c r="BT4" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BU4" s="11">
+      <c r="BU4" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BV4" s="11">
+      <c r="BV4" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BW4" s="11">
+      <c r="BW4" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BX4" s="11">
+      <c r="BX4" s="10">
         <v>8.501409E-2</v>
       </c>
       <c r="BY4" s="10">
@@ -1652,19 +1643,19 @@
       <c r="CC4" s="10">
         <v>0.12961991</v>
       </c>
-      <c r="CD4" s="11">
+      <c r="CD4" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CE4" s="11">
+      <c r="CE4" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CF4" s="11">
+      <c r="CF4" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CG4" s="11">
+      <c r="CG4" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CH4" s="11">
+      <c r="CH4" s="10">
         <v>0.1919806</v>
       </c>
       <c r="CI4" s="10">
@@ -1682,19 +1673,19 @@
       <c r="CM4" s="10">
         <v>0.27199255</v>
       </c>
-      <c r="CN4" s="11">
+      <c r="CN4" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CO4" s="11">
+      <c r="CO4" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CP4" s="11">
+      <c r="CP4" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CQ4" s="11">
+      <c r="CQ4" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CR4" s="11">
+      <c r="CR4" s="10">
         <v>0.37359783000000002</v>
       </c>
       <c r="CS4" s="10">
@@ -1723,16 +1714,16 @@
       <c r="B5" s="10">
         <v>0.16426531999999999</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
       <c r="G5" s="10">
@@ -1750,19 +1741,19 @@
       <c r="K5" s="10">
         <v>5.2193656000000003E-3</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
       <c r="Q5" s="10">
@@ -1780,19 +1771,19 @@
       <c r="U5" s="10">
         <v>3.5171386000000002E-3</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
       <c r="AA5" s="10">
@@ -1810,19 +1801,19 @@
       <c r="AE5" s="10">
         <v>4.9123292000000001E-3</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AF5" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AG5" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AH5" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AI5" s="11">
+      <c r="AI5" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AJ5" s="11">
+      <c r="AJ5" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
       <c r="AK5" s="10">
@@ -1840,19 +1831,19 @@
       <c r="AO5" s="10">
         <v>6.9764908000000004E-3</v>
       </c>
-      <c r="AP5" s="11">
+      <c r="AP5" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AQ5" s="11">
+      <c r="AQ5" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AR5" s="11">
+      <c r="AR5" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AS5" s="11">
+      <c r="AS5" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AT5" s="11">
+      <c r="AT5" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
       <c r="AU5" s="10">
@@ -1870,19 +1861,19 @@
       <c r="AY5" s="10">
         <v>9.6682752999999993E-3</v>
       </c>
-      <c r="AZ5" s="11">
+      <c r="AZ5" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BA5" s="11">
+      <c r="BA5" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BB5" s="11">
+      <c r="BB5" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BC5" s="11">
+      <c r="BC5" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BD5" s="11">
+      <c r="BD5" s="10">
         <v>1.2999171E-2</v>
       </c>
       <c r="BE5" s="10">
@@ -1900,19 +1891,19 @@
       <c r="BI5" s="10">
         <v>1.7799999E-2</v>
       </c>
-      <c r="BJ5" s="11">
+      <c r="BJ5" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BK5" s="11">
+      <c r="BK5" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BL5" s="11">
+      <c r="BL5" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BM5" s="11">
+      <c r="BM5" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BN5" s="11">
+      <c r="BN5" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
       <c r="BO5" s="10">
@@ -1930,19 +1921,19 @@
       <c r="BS5" s="10">
         <v>4.9775130000000001E-2</v>
       </c>
-      <c r="BT5" s="11">
+      <c r="BT5" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BU5" s="11">
+      <c r="BU5" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BV5" s="11">
+      <c r="BV5" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BW5" s="11">
+      <c r="BW5" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BX5" s="11">
+      <c r="BX5" s="10">
         <v>8.501409E-2</v>
       </c>
       <c r="BY5" s="10">
@@ -1960,19 +1951,19 @@
       <c r="CC5" s="10">
         <v>0.12961991</v>
       </c>
-      <c r="CD5" s="11">
+      <c r="CD5" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CE5" s="11">
+      <c r="CE5" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CF5" s="11">
+      <c r="CF5" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CG5" s="11">
+      <c r="CG5" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CH5" s="11">
+      <c r="CH5" s="10">
         <v>0.1919806</v>
       </c>
       <c r="CI5" s="10">
@@ -1990,19 +1981,19 @@
       <c r="CM5" s="10">
         <v>0.27199255</v>
       </c>
-      <c r="CN5" s="11">
+      <c r="CN5" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CO5" s="11">
+      <c r="CO5" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CP5" s="11">
+      <c r="CP5" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CQ5" s="11">
+      <c r="CQ5" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CR5" s="11">
+      <c r="CR5" s="10">
         <v>0.37359783000000002</v>
       </c>
       <c r="CS5" s="10">
@@ -2031,16 +2022,16 @@
       <c r="B6" s="10">
         <v>0.16426531999999999</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>2.9777446999999999E-2</v>
       </c>
       <c r="G6" s="10">
@@ -2058,19 +2049,19 @@
       <c r="K6" s="10">
         <v>5.2193656000000003E-3</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>2.9109423999999998E-3</v>
       </c>
       <c r="Q6" s="10">
@@ -2088,19 +2079,19 @@
       <c r="U6" s="10">
         <v>3.5171386000000002E-3</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="X6" s="11">
+      <c r="X6" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6" s="10">
         <v>4.2632338000000002E-3</v>
       </c>
       <c r="AA6" s="10">
@@ -2118,19 +2109,19 @@
       <c r="AE6" s="10">
         <v>4.9123292000000001E-3</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AF6" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AG6" s="11">
+      <c r="AG6" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AH6" s="11">
+      <c r="AH6" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AI6" s="11">
+      <c r="AI6" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
-      <c r="AJ6" s="11">
+      <c r="AJ6" s="10">
         <v>5.8628422999999997E-3</v>
       </c>
       <c r="AK6" s="10">
@@ -2148,19 +2139,19 @@
       <c r="AO6" s="10">
         <v>6.9764908000000004E-3</v>
       </c>
-      <c r="AP6" s="11">
+      <c r="AP6" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AQ6" s="11">
+      <c r="AQ6" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AR6" s="11">
+      <c r="AR6" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AS6" s="11">
+      <c r="AS6" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
-      <c r="AT6" s="11">
+      <c r="AT6" s="10">
         <v>8.3662551000000009E-3</v>
       </c>
       <c r="AU6" s="10">
@@ -2178,19 +2169,19 @@
       <c r="AY6" s="10">
         <v>9.6682752999999993E-3</v>
       </c>
-      <c r="AZ6" s="11">
+      <c r="AZ6" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BA6" s="11">
+      <c r="BA6" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BB6" s="11">
+      <c r="BB6" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BC6" s="11">
+      <c r="BC6" s="10">
         <v>1.2999171E-2</v>
       </c>
-      <c r="BD6" s="11">
+      <c r="BD6" s="10">
         <v>1.2999171E-2</v>
       </c>
       <c r="BE6" s="10">
@@ -2208,19 +2199,19 @@
       <c r="BI6" s="10">
         <v>1.7799999E-2</v>
       </c>
-      <c r="BJ6" s="11">
+      <c r="BJ6" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BK6" s="11">
+      <c r="BK6" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BL6" s="11">
+      <c r="BL6" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BM6" s="11">
+      <c r="BM6" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
-      <c r="BN6" s="11">
+      <c r="BN6" s="10">
         <v>2.9765705999999999E-2</v>
       </c>
       <c r="BO6" s="10">
@@ -2238,19 +2229,19 @@
       <c r="BS6" s="10">
         <v>4.9775130000000001E-2</v>
       </c>
-      <c r="BT6" s="11">
+      <c r="BT6" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BU6" s="11">
+      <c r="BU6" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BV6" s="11">
+      <c r="BV6" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BW6" s="11">
+      <c r="BW6" s="10">
         <v>8.501409E-2</v>
       </c>
-      <c r="BX6" s="11">
+      <c r="BX6" s="10">
         <v>8.501409E-2</v>
       </c>
       <c r="BY6" s="10">
@@ -2268,19 +2259,19 @@
       <c r="CC6" s="10">
         <v>0.12961991</v>
       </c>
-      <c r="CD6" s="11">
+      <c r="CD6" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CE6" s="11">
+      <c r="CE6" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CF6" s="11">
+      <c r="CF6" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CG6" s="11">
+      <c r="CG6" s="10">
         <v>0.1919806</v>
       </c>
-      <c r="CH6" s="11">
+      <c r="CH6" s="10">
         <v>0.1919806</v>
       </c>
       <c r="CI6" s="10">
@@ -2298,19 +2289,19 @@
       <c r="CM6" s="10">
         <v>0.27199255</v>
       </c>
-      <c r="CN6" s="11">
+      <c r="CN6" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CO6" s="11">
+      <c r="CO6" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CP6" s="11">
+      <c r="CP6" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CQ6" s="11">
+      <c r="CQ6" s="10">
         <v>0.37359783000000002</v>
       </c>
-      <c r="CR6" s="11">
+      <c r="CR6" s="10">
         <v>0.37359783000000002</v>
       </c>
       <c r="CS6" s="10">
